--- a/library/export_ntp.xlsx
+++ b/library/export_ntp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmis\AMS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>16/35 MM Production Supply</t>
   </si>
@@ -53,9 +53,6 @@
     <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
-    <t>Assistant Regional Director</t>
-  </si>
-  <si>
     <t>CONFORME:</t>
   </si>
   <si>
@@ -71,31 +68,25 @@
     <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
   </si>
   <si>
-    <t>Notice to Proceed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
   </si>
   <si>
     <t>conditions of the Purchase Order / Contract Agreement.</t>
   </si>
   <si>
-    <t xml:space="preserve">Please acknowledge receipt and acceptance of this Notice by signing both copies on the space </t>
-  </si>
-  <si>
-    <t xml:space="preserve">provided below. Retain one copy and return the other to the General Services and Supply </t>
-  </si>
-  <si>
-    <t>Section, DILG IV-A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/35 MM Production Supply that the asd for the FAD shall commence upon receipt of the </t>
+    <t xml:space="preserve">                     16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>Please acknowledge receipt and acceptance of this Notice by signing below.</t>
+  </si>
+  <si>
+    <t>Officer-in-Charge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -151,9 +142,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,10 +156,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,15 +186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6141720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -227,8 +218,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="213360" y="15240"/>
-          <a:ext cx="6019800" cy="1379220"/>
+          <a:off x="0" y="38100"/>
+          <a:ext cx="6141720" cy="1379220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,42 +517,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:I47"/>
+  <dimension ref="A10:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.88671875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>43893</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -572,97 +563,78 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A23:I23"/>
+  <mergeCells count="1">
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"-,Italic"The Head of the Procuring Entity, through the Procurement Unit/Office, immediately upon approval of the recommendation for award, shall issue the Notice of Award to the bidder with the LCRB.</oddFooter>
   </headerFooter>

--- a/library/export_ntp.xlsx
+++ b/library/export_ntp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C8399-A36A-4468-B496-F52544612841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7992" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>Very truly yours,</t>
   </si>
   <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
-  </si>
-  <si>
     <t>CONFORME:</t>
   </si>
   <si>
@@ -81,12 +79,15 @@
   </si>
   <si>
     <t>Officer-in-Charge</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -198,7 +199,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -516,57 +523,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="85.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>43893</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -577,56 +584,56 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/library/export_ntp.xlsx
+++ b/library/export_ntp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408C8399-A36A-4468-B496-F52544612841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED98B1A-104B-4079-8D47-73DE3FEBC378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>Officer-in-Charge</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO III</t>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A10:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/library/export_ntp.xlsx
+++ b/library/export_ntp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED98B1A-104B-4079-8D47-73DE3FEBC378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,16 +77,16 @@
     <t>Please acknowledge receipt and acceptance of this Notice by signing below.</t>
   </si>
   <si>
-    <t>Officer-in-Charge</t>
-  </si>
-  <si>
     <t>ARIEL O. IGLESIA, CESO IV</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -523,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,6 +583,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
@@ -606,12 +606,12 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">

--- a/library/export_ntp.xlsx
+++ b/library/export_ntp.xlsx
@@ -77,10 +77,10 @@
     <t>Please acknowledge receipt and acceptance of this Notice by signing below.</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
-  </si>
-  <si>
     <t>Regional Director</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A10:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,12 +606,12 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">

--- a/library/export_ntp.xlsx
+++ b/library/export_ntp.xlsx
@@ -32,8 +32,44 @@
     <t>UG22-23 Star Centrum Bldg. #317 Gil Puyat Ave. Makati City</t>
   </si>
   <si>
+    <t>Very truly yours,</t>
+  </si>
+  <si>
+    <t>CONFORME:</t>
+  </si>
+  <si>
+    <t>By        :           __________________________</t>
+  </si>
+  <si>
+    <t>Date    :           __________________________</t>
+  </si>
+  <si>
+    <t>NOTICE TO PROCEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
+  </si>
+  <si>
+    <t>conditions of the Purchase Order / Contract Agreement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>Please acknowledge receipt and acceptance of this Notice by signing below.</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Dear Mr./Ms. </t>
+      <t xml:space="preserve">Dear Sir/Madam: </t>
     </r>
     <r>
       <rPr>
@@ -45,42 +81,6 @@
       </rPr>
       <t>16/35 MM Production Supply:</t>
     </r>
-  </si>
-  <si>
-    <t>Very truly yours,</t>
-  </si>
-  <si>
-    <t>CONFORME:</t>
-  </si>
-  <si>
-    <t>By        :           __________________________</t>
-  </si>
-  <si>
-    <t>Date    :           __________________________</t>
-  </si>
-  <si>
-    <t>NOTICE TO PROCEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Purchase Order / Contract Agreement having been approved, notice is hereby given to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upon receipt of this notice, you are responsible for performing the services under the terms and </t>
-  </si>
-  <si>
-    <t>conditions of the Purchase Order / Contract Agreement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     16/35 MM Production Supply</t>
-  </si>
-  <si>
-    <t>Please acknowledge receipt and acceptance of this Notice by signing below.</t>
-  </si>
-  <si>
-    <t>Regional Director</t>
-  </si>
-  <si>
-    <t>ARIEL O. IGLESIA</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,7 +537,7 @@
   <sheetData>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -564,12 +564,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -586,54 +586,54 @@
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
